--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>IP ADDRESS</t>
   </si>
@@ -384,6 +384,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
